--- a/output/1Y_P51_KFSDIV.xlsx
+++ b/output/1Y_P51_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>16.4004</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>15.3877</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="F3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="H3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0617</v>
+        <v>-0.0655</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>14.6367</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E4" s="1">
-        <v>1259.6109</v>
+        <v>1257.092</v>
       </c>
       <c r="F4" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="H4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8779</v>
+        <v>15.9097</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0488</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.0061</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E5" s="1">
-        <v>1942.825</v>
+        <v>1938.9412</v>
       </c>
       <c r="F5" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="H5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.4414</v>
+        <v>15.4724</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9433.1751</v>
+        <v>-9434.3086</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1114</v>
+        <v>-0.1127</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.835</v>
       </c>
       <c r="C6" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D6" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E6" s="1">
-        <v>2711.695</v>
+        <v>2706.2714</v>
       </c>
       <c r="F6" s="1">
-        <v>727.9258</v>
+        <v>726.461</v>
       </c>
       <c r="H6" s="1">
-        <v>37516.3008</v>
+        <v>37366.3004</v>
       </c>
       <c r="I6" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="J6" s="1">
-        <v>38083.1257</v>
+        <v>37931.9918</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.7509</v>
+        <v>14.7805</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10070.8531</v>
+        <v>-10070.7114</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0798</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>14.4216</v>
       </c>
       <c r="C7" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D7" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E7" s="1">
-        <v>3439.6208</v>
+        <v>3432.7324</v>
       </c>
       <c r="F7" s="1">
-        <v>698.3173</v>
+        <v>696.9109</v>
       </c>
       <c r="H7" s="1">
-        <v>49604.8354</v>
+        <v>49406.6307</v>
       </c>
       <c r="I7" s="1">
-        <v>495.9718</v>
+        <v>494.98</v>
       </c>
       <c r="J7" s="1">
-        <v>50100.8072</v>
+        <v>49901.6107</v>
       </c>
       <c r="K7" s="1">
-        <v>50070.8531</v>
+        <v>50070.7114</v>
       </c>
       <c r="L7" s="1">
-        <v>14.5571</v>
+        <v>14.5863</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10070.8531</v>
+        <v>-10070.7114</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.042</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.2404</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E8" s="1">
-        <v>4137.9381</v>
+        <v>4129.6433</v>
       </c>
       <c r="F8" s="1">
-        <v>760.6155</v>
+        <v>759.0855</v>
       </c>
       <c r="H8" s="1">
-        <v>54787.956</v>
+        <v>54568.6939</v>
       </c>
       <c r="I8" s="1">
-        <v>425.1187</v>
+        <v>424.2686</v>
       </c>
       <c r="J8" s="1">
-        <v>55213.0747</v>
+        <v>54992.9624</v>
       </c>
       <c r="K8" s="1">
-        <v>60141.7062</v>
+        <v>60141.4229</v>
       </c>
       <c r="L8" s="1">
-        <v>14.5342</v>
+        <v>14.5633</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1238.2635</v>
+        <v>1235.7837</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8832.589599999999</v>
+        <v>-8834.927799999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0813</v>
+        <v>-0.0819</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.382</v>
       </c>
       <c r="C9" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D9" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E9" s="1">
-        <v>4898.5536</v>
+        <v>4888.7288</v>
       </c>
       <c r="F9" s="1">
-        <v>833.3473</v>
+        <v>831.6301</v>
       </c>
       <c r="H9" s="1">
-        <v>60653.8907</v>
+        <v>60410.9998</v>
       </c>
       <c r="I9" s="1">
-        <v>1592.5291</v>
+        <v>1589.3408</v>
       </c>
       <c r="J9" s="1">
-        <v>62246.4198</v>
+        <v>62000.3406</v>
       </c>
       <c r="K9" s="1">
-        <v>70212.55929999999</v>
+        <v>70212.13430000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.3333</v>
+        <v>14.362</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10318.5058</v>
+        <v>-10317.8682</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0455</v>
+        <v>-0.046</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.9583</v>
       </c>
       <c r="C10" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D10" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E10" s="1">
-        <v>5731.9009</v>
+        <v>5720.3589</v>
       </c>
       <c r="F10" s="1">
-        <v>862.874</v>
+        <v>861.0925</v>
       </c>
       <c r="H10" s="1">
-        <v>68543.7901</v>
+        <v>68269.0514</v>
       </c>
       <c r="I10" s="1">
-        <v>1274.0233</v>
+        <v>1271.4726</v>
       </c>
       <c r="J10" s="1">
-        <v>69817.8134</v>
+        <v>69540.524</v>
       </c>
       <c r="K10" s="1">
-        <v>80531.0652</v>
+        <v>80530.0024</v>
       </c>
       <c r="L10" s="1">
-        <v>14.0496</v>
+        <v>14.0778</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10318.5058</v>
+        <v>-10317.8682</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0336</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>12.2036</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E11" s="1">
-        <v>6594.7748</v>
+        <v>6581.4514</v>
       </c>
       <c r="F11" s="1">
-        <v>845.5297</v>
+        <v>843.7834</v>
       </c>
       <c r="H11" s="1">
-        <v>80479.9942</v>
+        <v>80156.8125</v>
       </c>
       <c r="I11" s="1">
-        <v>955.5174</v>
+        <v>953.6045</v>
       </c>
       <c r="J11" s="1">
-        <v>81435.5117</v>
+        <v>81110.417</v>
       </c>
       <c r="K11" s="1">
-        <v>90849.571</v>
+        <v>90847.87059999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.776</v>
+        <v>13.8036</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2063.4843</v>
+        <v>2059.3292</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8255.021500000001</v>
+        <v>-8258.539000000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0203</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E12" s="1">
-        <v>7440.3045</v>
+        <v>7425.2348</v>
       </c>
       <c r="F12" s="1">
-        <v>878.9376</v>
+        <v>876.9684</v>
       </c>
       <c r="H12" s="1">
-        <v>96081.1162</v>
+        <v>95694.94100000001</v>
       </c>
       <c r="I12" s="1">
-        <v>2700.4959</v>
+        <v>2695.0655</v>
       </c>
       <c r="J12" s="1">
-        <v>98781.6122</v>
+        <v>98390.0065</v>
       </c>
       <c r="K12" s="1">
-        <v>101168.0768</v>
+        <v>101165.7388</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5973</v>
+        <v>13.6246</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11350.248</v>
+        <v>-11347.5328</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0803</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.4338</v>
       </c>
       <c r="C13" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D13" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E13" s="1">
-        <v>8319.242099999999</v>
+        <v>8302.2032</v>
       </c>
       <c r="F13" s="1">
-        <v>844.9023</v>
+        <v>843.0121</v>
       </c>
       <c r="H13" s="1">
-        <v>111759.0339</v>
+        <v>111306.8082</v>
       </c>
       <c r="I13" s="1">
-        <v>1350.248</v>
+        <v>1347.5328</v>
       </c>
       <c r="J13" s="1">
-        <v>113109.2819</v>
+        <v>112654.341</v>
       </c>
       <c r="K13" s="1">
-        <v>112518.3248</v>
+        <v>112513.2715</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5251</v>
+        <v>13.5522</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11350.248</v>
+        <v>-11347.5328</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0398</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>12.9657</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E14" s="1">
-        <v>9164.1443</v>
+        <v>9145.2153</v>
       </c>
       <c r="F14" s="1">
-        <v>-9164.1443</v>
+        <v>-9145.2153</v>
       </c>
       <c r="H14" s="1">
-        <v>118819.5459</v>
+        <v>118337.2568</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>118819.5459</v>
+        <v>118337.2568</v>
       </c>
       <c r="K14" s="1">
-        <v>123868.5727</v>
+        <v>123860.8043</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5167</v>
+        <v>13.5438</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2246.1954</v>
+        <v>2241.5949</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121065.7413</v>
+        <v>120578.8517</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0348</v>
+        <v>-0.0352</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>16.4004</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>15.3877</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="F3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0617</v>
+        <v>-0.0655</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>14.6367</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E4" s="1">
-        <v>1259.6109</v>
+        <v>1257.092</v>
       </c>
       <c r="F4" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8779</v>
+        <v>15.9097</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0488</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.0061</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E5" s="1">
-        <v>1942.825</v>
+        <v>1938.9412</v>
       </c>
       <c r="F5" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.4414</v>
+        <v>15.4724</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9433.1751</v>
+        <v>-9434.3086</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1114</v>
+        <v>-0.1127</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.835</v>
       </c>
       <c r="C6" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D6" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E6" s="1">
-        <v>2711.695</v>
+        <v>2706.2714</v>
       </c>
       <c r="F6" s="1">
-        <v>763.7748</v>
+        <v>762.1669000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37516.3008</v>
+        <v>37366.3004</v>
       </c>
       <c r="I6" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="J6" s="1">
-        <v>38083.1257</v>
+        <v>37931.9918</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.7509</v>
+        <v>14.7805</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10566.8249</v>
+        <v>-10565.6914</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0798</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>14.4216</v>
       </c>
       <c r="C7" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D7" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E7" s="1">
-        <v>3475.4699</v>
+        <v>3468.4383</v>
       </c>
       <c r="F7" s="1">
-        <v>684.9562</v>
+        <v>692.0176</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50121.8363</v>
+        <v>49920.5384</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50121.8363</v>
+        <v>49920.5384</v>
       </c>
       <c r="K7" s="1">
-        <v>50566.8249</v>
+        <v>50565.6914</v>
       </c>
       <c r="L7" s="1">
-        <v>14.5496</v>
+        <v>14.5788</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9878.163699999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0424</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.2404</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E8" s="1">
-        <v>4160.426</v>
+        <v>4160.4559</v>
       </c>
       <c r="F8" s="1">
-        <v>764.4661</v>
+        <v>753.7556</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>55085.7048</v>
+        <v>54975.8476</v>
       </c>
       <c r="I8" s="1">
-        <v>121.8363</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55207.5411</v>
+        <v>54975.8476</v>
       </c>
       <c r="K8" s="1">
-        <v>60444.9886</v>
+        <v>60565.6914</v>
       </c>
       <c r="L8" s="1">
-        <v>14.5286</v>
+        <v>14.5575</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1251.1692</v>
+        <v>1248.6378</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8870.667100000001</v>
+        <v>-8751.3622</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.08169999999999999</v>
+        <v>-0.0825</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.382</v>
       </c>
       <c r="C9" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D9" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E9" s="1">
-        <v>4924.8921</v>
+        <v>4914.2114</v>
       </c>
       <c r="F9" s="1">
-        <v>908.6713999999999</v>
+        <v>906.651</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>60980.0137</v>
+        <v>60725.8936</v>
       </c>
       <c r="I9" s="1">
-        <v>1251.1692</v>
+        <v>1248.6378</v>
       </c>
       <c r="J9" s="1">
-        <v>62231.1829</v>
+        <v>61974.5314</v>
       </c>
       <c r="K9" s="1">
-        <v>70566.82490000001</v>
+        <v>70565.6914</v>
       </c>
       <c r="L9" s="1">
-        <v>14.3286</v>
+        <v>14.3595</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11251.1692</v>
+        <v>-11248.6378</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0456</v>
+        <v>-0.0462</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.9583</v>
       </c>
       <c r="C10" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D10" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E10" s="1">
-        <v>5833.5635</v>
+        <v>5820.8625</v>
       </c>
       <c r="F10" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>69759.50199999999</v>
+        <v>69468.50079999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>69759.50199999999</v>
+        <v>69468.50079999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81817.9941</v>
+        <v>81814.32919999999</v>
       </c>
       <c r="L10" s="1">
-        <v>14.0254</v>
+        <v>14.0554</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0342</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>12.2036</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E11" s="1">
-        <v>6669.8027</v>
+        <v>6655.4268</v>
       </c>
       <c r="F11" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>81395.60460000001</v>
+        <v>81057.77370000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81395.60460000001</v>
+        <v>81057.77370000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91817.9941</v>
+        <v>91814.32919999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.7662</v>
+        <v>13.7954</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2100.0828</v>
+        <v>2095.5105</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7899.9172</v>
+        <v>-7904.4895</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E12" s="1">
-        <v>7489.2331</v>
+        <v>7473.2153</v>
       </c>
       <c r="F12" s="1">
-        <v>937.0031</v>
+        <v>934.7742</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>96712.9601</v>
+        <v>96313.3042</v>
       </c>
       <c r="I12" s="1">
-        <v>2100.0828</v>
+        <v>2095.5105</v>
       </c>
       <c r="J12" s="1">
-        <v>98813.04300000001</v>
+        <v>98408.8147</v>
       </c>
       <c r="K12" s="1">
-        <v>101817.9941</v>
+        <v>101814.3292</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5952</v>
+        <v>13.6239</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12100.0828</v>
+        <v>-12095.5105</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.08119999999999999</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.4338</v>
       </c>
       <c r="C13" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D13" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E13" s="1">
-        <v>8426.2361</v>
+        <v>8407.9895</v>
       </c>
       <c r="F13" s="1">
-        <v>506.456</v>
+        <v>542.6255</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>113196.371</v>
+        <v>112725.0742</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>113196.371</v>
+        <v>112725.0742</v>
       </c>
       <c r="K13" s="1">
-        <v>113918.0769</v>
+        <v>113909.8397</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5194</v>
+        <v>13.5478</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6803.629</v>
+        <v>-7304.1191</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>12.9657</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E14" s="1">
-        <v>8932.6922</v>
+        <v>8950.615</v>
       </c>
       <c r="F14" s="1">
-        <v>-8932.6922</v>
+        <v>-8950.615</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115818.6068</v>
+        <v>115819.1677</v>
       </c>
       <c r="I14" s="1">
-        <v>3196.371</v>
+        <v>2695.8809</v>
       </c>
       <c r="J14" s="1">
-        <v>119014.9778</v>
+        <v>118515.0487</v>
       </c>
       <c r="K14" s="1">
-        <v>120721.7059</v>
+        <v>121213.9587</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5146</v>
+        <v>13.5425</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2275.0838</v>
+        <v>2270.1572</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118093.6906</v>
+        <v>118089.3249</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0339</v>
+        <v>-0.0343</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>16.4004</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>15.3877</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="F3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0617</v>
+        <v>-0.0655</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>14.6367</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E4" s="1">
-        <v>1259.6109</v>
+        <v>1257.092</v>
       </c>
       <c r="F4" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8779</v>
+        <v>15.9097</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0488</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.0061</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E5" s="1">
-        <v>1942.825</v>
+        <v>1938.9412</v>
       </c>
       <c r="F5" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.4414</v>
+        <v>15.4724</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9433.1751</v>
+        <v>-9434.3086</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1114</v>
+        <v>-0.1127</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.835</v>
       </c>
       <c r="C6" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D6" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E6" s="1">
-        <v>2711.695</v>
+        <v>2706.2714</v>
       </c>
       <c r="F6" s="1">
-        <v>763.7748</v>
+        <v>762.1669000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37516.3008</v>
+        <v>37366.3004</v>
       </c>
       <c r="I6" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="J6" s="1">
-        <v>38083.1257</v>
+        <v>37931.9918</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.7509</v>
+        <v>14.7805</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10566.8249</v>
+        <v>-10565.6914</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0798</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>14.4216</v>
       </c>
       <c r="C7" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D7" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E7" s="1">
-        <v>3475.4699</v>
+        <v>3468.4383</v>
       </c>
       <c r="F7" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50121.8363</v>
+        <v>49920.5384</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50121.8363</v>
+        <v>49920.5384</v>
       </c>
       <c r="K7" s="1">
-        <v>50566.8249</v>
+        <v>50565.6914</v>
       </c>
       <c r="L7" s="1">
-        <v>14.5496</v>
+        <v>14.5788</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0424</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.2404</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E8" s="1">
-        <v>4168.8742</v>
+        <v>4160.4559</v>
       </c>
       <c r="F8" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>55197.5621</v>
+        <v>54975.8476</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55197.5621</v>
+        <v>54975.8476</v>
       </c>
       <c r="K8" s="1">
-        <v>60566.8249</v>
+        <v>60565.6914</v>
       </c>
       <c r="L8" s="1">
-        <v>14.5283</v>
+        <v>14.5575</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1251.1692</v>
+        <v>1248.6378</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8748.8308</v>
+        <v>-8751.3622</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0819</v>
+        <v>-0.0825</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.382</v>
       </c>
       <c r="C9" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D9" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E9" s="1">
-        <v>4924.1384</v>
+        <v>4914.2114</v>
       </c>
       <c r="F9" s="1">
-        <v>908.6713999999999</v>
+        <v>906.651</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>60970.6817</v>
+        <v>60725.8936</v>
       </c>
       <c r="I9" s="1">
-        <v>1251.1692</v>
+        <v>1248.6378</v>
       </c>
       <c r="J9" s="1">
-        <v>62221.8508</v>
+        <v>61974.5314</v>
       </c>
       <c r="K9" s="1">
-        <v>70566.82490000001</v>
+        <v>70565.6914</v>
       </c>
       <c r="L9" s="1">
-        <v>14.3308</v>
+        <v>14.3595</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11251.1692</v>
+        <v>-11248.6378</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0456</v>
+        <v>-0.0462</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.9583</v>
       </c>
       <c r="C10" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D10" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E10" s="1">
-        <v>5832.8098</v>
+        <v>5820.8625</v>
       </c>
       <c r="F10" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>69750.4893</v>
+        <v>69468.50079999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>69750.4893</v>
+        <v>69468.50079999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81817.9941</v>
+        <v>81814.32919999999</v>
       </c>
       <c r="L10" s="1">
-        <v>14.0272</v>
+        <v>14.0554</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0342</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>12.2036</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E11" s="1">
-        <v>6669.0491</v>
+        <v>6655.4268</v>
       </c>
       <c r="F11" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>81386.4071</v>
+        <v>81057.77370000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81386.4071</v>
+        <v>81057.77370000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91817.9941</v>
+        <v>91814.32919999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.7678</v>
+        <v>13.7954</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2099.8115</v>
+        <v>2095.5105</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7900.1885</v>
+        <v>-7904.4895</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E12" s="1">
-        <v>7488.4794</v>
+        <v>7473.2153</v>
       </c>
       <c r="F12" s="1">
-        <v>936.9820999999999</v>
+        <v>934.7742</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>96703.2274</v>
+        <v>96313.3042</v>
       </c>
       <c r="I12" s="1">
-        <v>2099.8115</v>
+        <v>2095.5105</v>
       </c>
       <c r="J12" s="1">
-        <v>98803.0389</v>
+        <v>98408.8147</v>
       </c>
       <c r="K12" s="1">
-        <v>101817.9941</v>
+        <v>101814.3292</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5966</v>
+        <v>13.6239</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12099.8115</v>
+        <v>-12095.5105</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.08119999999999999</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.4338</v>
       </c>
       <c r="C13" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D13" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E13" s="1">
-        <v>8425.4614</v>
+        <v>8407.9895</v>
       </c>
       <c r="F13" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113185.964</v>
+        <v>112725.0742</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>113185.964</v>
+        <v>112725.0742</v>
       </c>
       <c r="K13" s="1">
-        <v>113917.8056</v>
+        <v>113909.8397</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5207</v>
+        <v>13.5478</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>12.9657</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E14" s="1">
-        <v>9169.852500000001</v>
+        <v>9150.892900000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9169.852500000001</v>
+        <v>-9150.892900000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118893.5561</v>
+        <v>118410.7239</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>118893.5561</v>
+        <v>118410.7239</v>
       </c>
       <c r="K14" s="1">
-        <v>123917.8056</v>
+        <v>123909.8397</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5136</v>
+        <v>13.5407</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2274.8746</v>
+        <v>2270.1572</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121168.4306</v>
+        <v>120680.8811</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0348</v>
+        <v>-0.0352</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>16.4004</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>15.3877</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="F3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0617</v>
+        <v>-0.0655</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>14.6367</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E4" s="1">
-        <v>1259.6109</v>
+        <v>1257.092</v>
       </c>
       <c r="F4" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8779</v>
+        <v>15.9097</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0488</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.0061</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E5" s="1">
-        <v>1942.825</v>
+        <v>1938.9412</v>
       </c>
       <c r="F5" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.4414</v>
+        <v>15.4724</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9433.1751</v>
+        <v>-9434.3086</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1114</v>
+        <v>-0.1127</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.835</v>
       </c>
       <c r="C6" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D6" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E6" s="1">
-        <v>2711.695</v>
+        <v>2706.2714</v>
       </c>
       <c r="F6" s="1">
-        <v>763.7748</v>
+        <v>762.1669000000001</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37516.3008</v>
+        <v>37366.3004</v>
       </c>
       <c r="I6" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="J6" s="1">
-        <v>38083.1257</v>
+        <v>37931.9918</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.7509</v>
+        <v>14.7805</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10566.8249</v>
+        <v>-10565.6914</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0798</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>14.4216</v>
       </c>
       <c r="C7" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D7" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E7" s="1">
-        <v>3475.4699</v>
+        <v>3468.4383</v>
       </c>
       <c r="F7" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50121.8363</v>
+        <v>49920.5384</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50121.8363</v>
+        <v>49920.5384</v>
       </c>
       <c r="K7" s="1">
-        <v>50566.8249</v>
+        <v>50565.6914</v>
       </c>
       <c r="L7" s="1">
-        <v>14.5496</v>
+        <v>14.5788</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0424</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.2404</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E8" s="1">
-        <v>4168.8742</v>
+        <v>4160.4559</v>
       </c>
       <c r="F8" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>55197.5621</v>
+        <v>54975.8476</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55197.5621</v>
+        <v>54975.8476</v>
       </c>
       <c r="K8" s="1">
-        <v>60566.8249</v>
+        <v>60565.6914</v>
       </c>
       <c r="L8" s="1">
-        <v>14.5283</v>
+        <v>14.5575</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1251.1692</v>
+        <v>1248.6378</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8748.8308</v>
+        <v>-8751.3622</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0819</v>
+        <v>-0.0825</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.382</v>
       </c>
       <c r="C9" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D9" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E9" s="1">
-        <v>4924.1384</v>
+        <v>4914.2114</v>
       </c>
       <c r="F9" s="1">
-        <v>908.6713999999999</v>
+        <v>906.651</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>60970.6817</v>
+        <v>60725.8936</v>
       </c>
       <c r="I9" s="1">
-        <v>1251.1692</v>
+        <v>1248.6378</v>
       </c>
       <c r="J9" s="1">
-        <v>62221.8508</v>
+        <v>61974.5314</v>
       </c>
       <c r="K9" s="1">
-        <v>70566.82490000001</v>
+        <v>70565.6914</v>
       </c>
       <c r="L9" s="1">
-        <v>14.3308</v>
+        <v>14.3595</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11251.1692</v>
+        <v>-11248.6378</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0456</v>
+        <v>-0.0462</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.9583</v>
       </c>
       <c r="C10" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D10" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E10" s="1">
-        <v>5832.8098</v>
+        <v>5820.8625</v>
       </c>
       <c r="F10" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>69750.4893</v>
+        <v>69468.50079999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>69750.4893</v>
+        <v>69468.50079999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81817.9941</v>
+        <v>81814.32919999999</v>
       </c>
       <c r="L10" s="1">
-        <v>14.0272</v>
+        <v>14.0554</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0342</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>12.2036</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E11" s="1">
-        <v>6669.0491</v>
+        <v>6655.4268</v>
       </c>
       <c r="F11" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>81386.4071</v>
+        <v>81057.77370000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81386.4071</v>
+        <v>81057.77370000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91817.9941</v>
+        <v>91814.32919999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.7678</v>
+        <v>13.7954</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2099.8115</v>
+        <v>2095.5105</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7900.1885</v>
+        <v>-7904.4895</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E12" s="1">
-        <v>7488.4794</v>
+        <v>7473.2153</v>
       </c>
       <c r="F12" s="1">
-        <v>936.9820999999999</v>
+        <v>934.7742</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>96703.2274</v>
+        <v>96313.3042</v>
       </c>
       <c r="I12" s="1">
-        <v>2099.8115</v>
+        <v>2095.5105</v>
       </c>
       <c r="J12" s="1">
-        <v>98803.0389</v>
+        <v>98408.8147</v>
       </c>
       <c r="K12" s="1">
-        <v>101817.9941</v>
+        <v>101814.3292</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5966</v>
+        <v>13.6239</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12099.8115</v>
+        <v>-12095.5105</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.08119999999999999</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.4338</v>
       </c>
       <c r="C13" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D13" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E13" s="1">
-        <v>8425.4614</v>
+        <v>8407.9895</v>
       </c>
       <c r="F13" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>113185.964</v>
+        <v>112725.0742</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>113185.964</v>
+        <v>112725.0742</v>
       </c>
       <c r="K13" s="1">
-        <v>113917.8056</v>
+        <v>113909.8397</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5207</v>
+        <v>13.5478</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>12.9657</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E14" s="1">
-        <v>9169.852500000001</v>
+        <v>9150.892900000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9169.852500000001</v>
+        <v>-9150.892900000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118893.5561</v>
+        <v>118410.7239</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>118893.5561</v>
+        <v>118410.7239</v>
       </c>
       <c r="K14" s="1">
-        <v>123917.8056</v>
+        <v>123909.8397</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5136</v>
+        <v>13.5407</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2274.8746</v>
+        <v>2270.1572</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121168.4306</v>
+        <v>120680.8811</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0348</v>
+        <v>-0.0352</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>16.4004</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>15.3877</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="F3" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9382.515100000001</v>
+        <v>9344.988499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0617</v>
+        <v>-0.0655</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>14.6367</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E4" s="1">
-        <v>1259.6109</v>
+        <v>1257.092</v>
       </c>
       <c r="F4" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18436.5473</v>
+        <v>18362.8461</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.8779</v>
+        <v>15.9097</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0488</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.0061</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E5" s="1">
-        <v>1942.825</v>
+        <v>1938.9412</v>
       </c>
       <c r="F5" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>25268.5767</v>
+        <v>25167.6507</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.4414</v>
+        <v>15.4724</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9433.1751</v>
+        <v>-9434.3086</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1114</v>
+        <v>-0.1127</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.835</v>
       </c>
       <c r="C6" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D6" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E6" s="1">
-        <v>2711.695</v>
+        <v>2706.2714</v>
       </c>
       <c r="F6" s="1">
-        <v>763.7748</v>
+        <v>762.1669000000001</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37516.3008</v>
+        <v>37366.3004</v>
       </c>
       <c r="I6" s="1">
-        <v>566.8249</v>
+        <v>565.6914</v>
       </c>
       <c r="J6" s="1">
-        <v>38083.1257</v>
+        <v>37931.9918</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.7509</v>
+        <v>14.7805</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10566.8249</v>
+        <v>-10565.6914</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0798</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>14.4216</v>
       </c>
       <c r="C7" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D7" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E7" s="1">
-        <v>3475.4699</v>
+        <v>3468.4383</v>
       </c>
       <c r="F7" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50121.8363</v>
+        <v>49920.5384</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50121.8363</v>
+        <v>49920.5384</v>
       </c>
       <c r="K7" s="1">
-        <v>50566.8249</v>
+        <v>50565.6914</v>
       </c>
       <c r="L7" s="1">
-        <v>14.5496</v>
+        <v>14.5788</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0424</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.2404</v>
       </c>
       <c r="C8" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D8" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E8" s="1">
-        <v>4168.8742</v>
+        <v>4160.4559</v>
       </c>
       <c r="F8" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>55197.5621</v>
+        <v>54975.8476</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55197.5621</v>
+        <v>54975.8476</v>
       </c>
       <c r="K8" s="1">
-        <v>60566.8249</v>
+        <v>60565.6914</v>
       </c>
       <c r="L8" s="1">
-        <v>14.5283</v>
+        <v>14.5575</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1251.1692</v>
+        <v>1248.6378</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8748.8308</v>
+        <v>-8751.3622</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0819</v>
+        <v>-0.0825</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.382</v>
       </c>
       <c r="C9" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D9" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E9" s="1">
-        <v>4924.1384</v>
+        <v>4914.2114</v>
       </c>
       <c r="F9" s="1">
-        <v>908.6713999999999</v>
+        <v>906.651</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>60970.6817</v>
+        <v>60725.8936</v>
       </c>
       <c r="I9" s="1">
-        <v>1251.1692</v>
+        <v>1248.6378</v>
       </c>
       <c r="J9" s="1">
-        <v>62221.8508</v>
+        <v>61974.5314</v>
       </c>
       <c r="K9" s="1">
-        <v>70566.82490000001</v>
+        <v>70565.6914</v>
       </c>
       <c r="L9" s="1">
-        <v>14.3308</v>
+        <v>14.3595</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11251.1692</v>
+        <v>-11248.6378</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0456</v>
+        <v>-0.0462</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.9583</v>
       </c>
       <c r="C10" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D10" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E10" s="1">
-        <v>5832.8098</v>
+        <v>5820.8625</v>
       </c>
       <c r="F10" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>69750.4893</v>
+        <v>69468.50079999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>69750.4893</v>
+        <v>69468.50079999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81817.9941</v>
+        <v>81814.32919999999</v>
       </c>
       <c r="L10" s="1">
-        <v>14.0272</v>
+        <v>14.0554</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0342</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>12.2036</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E11" s="1">
-        <v>6669.0491</v>
+        <v>6655.4268</v>
       </c>
       <c r="F11" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>81386.4071</v>
+        <v>81057.77370000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81386.4071</v>
+        <v>81057.77370000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91817.9941</v>
+        <v>91814.32919999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.7678</v>
+        <v>13.7954</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>2099.8115</v>
+        <v>2095.5105</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7900.1885</v>
+        <v>-7904.4895</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.9136</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E12" s="1">
-        <v>7488.4794</v>
+        <v>7473.2153</v>
       </c>
       <c r="F12" s="1">
-        <v>936.9820999999999</v>
+        <v>934.7742</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>96703.2274</v>
+        <v>96313.3042</v>
       </c>
       <c r="I12" s="1">
-        <v>2099.8115</v>
+        <v>2095.5105</v>
       </c>
       <c r="J12" s="1">
-        <v>98803.0389</v>
+        <v>98408.8147</v>
       </c>
       <c r="K12" s="1">
-        <v>101817.9941</v>
+        <v>101814.3292</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5966</v>
+        <v>13.6239</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12099.8115</v>
+        <v>-12095.5105</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.08119999999999999</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.4338</v>
       </c>
       <c r="C13" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D13" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E13" s="1">
-        <v>8425.4614</v>
+        <v>8407.9895</v>
       </c>
       <c r="F13" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113185.964</v>
+        <v>112725.0742</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>113185.964</v>
+        <v>112725.0742</v>
       </c>
       <c r="K13" s="1">
-        <v>113917.8056</v>
+        <v>113909.8397</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5207</v>
+        <v>13.5478</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>12.9657</v>
       </c>
       <c r="C14" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D14" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E14" s="1">
-        <v>9169.852500000001</v>
+        <v>9150.892900000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9169.852500000001</v>
+        <v>-9150.892900000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118893.5561</v>
+        <v>118410.7239</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>118893.5561</v>
+        <v>118410.7239</v>
       </c>
       <c r="K14" s="1">
-        <v>123917.8056</v>
+        <v>123909.8397</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5136</v>
+        <v>13.5407</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2274.8746</v>
+        <v>2270.1572</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121168.4306</v>
+        <v>120680.8811</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0348</v>
+        <v>-0.0352</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5167</v>
+        <v>13.5438</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5146</v>
+        <v>13.5425</v>
       </c>
       <c r="E3" s="1">
-        <v>13.5136</v>
+        <v>13.5407</v>
       </c>
       <c r="F3" s="1">
-        <v>13.5136</v>
+        <v>13.5407</v>
       </c>
       <c r="G3" s="1">
-        <v>13.5136</v>
+        <v>13.5407</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2127</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1551</v>
+        <v>-0.1676</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1533</v>
+        <v>-0.1661</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1544</v>
+        <v>-0.167</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1544</v>
+        <v>-0.167</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1544</v>
+        <v>-0.167</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1985</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2103</v>
+        <v>0.2113</v>
       </c>
       <c r="D5" s="3">
-        <v>0.211</v>
+        <v>0.2121</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2112</v>
+        <v>0.2122</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2112</v>
+        <v>0.2122</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2112</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.1734</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.8342000000000001</v>
+        <v>-0.8894</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.823</v>
+        <v>-0.879</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.8275</v>
+        <v>-0.8827</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.8275</v>
+        <v>-0.8827</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.8275</v>
+        <v>-0.8827</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0166</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0201</v>
+        <v>0.0122</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0181</v>
+        <v>0.0105</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0181</v>
+        <v>0.0105</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0181</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6114.7681</v>
+        <v>6102.3991</v>
       </c>
       <c r="D8" s="1">
-        <v>6193.1607</v>
+        <v>6179.9968</v>
       </c>
       <c r="E8" s="1">
-        <v>6192.6802</v>
+        <v>6179.9968</v>
       </c>
       <c r="F8" s="1">
-        <v>6192.6802</v>
+        <v>6179.9968</v>
       </c>
       <c r="G8" s="1">
-        <v>6192.6802</v>
+        <v>6179.9968</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P51_KFSDIV.xlsx
+++ b/output/1Y_P51_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.4004</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3877</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6367</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0061</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.835</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.4216</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2404</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.382</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.9583</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2036</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9136</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.4338</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9657</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.4004</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3877</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6367</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0061</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.835</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.4216</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2404</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.382</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.9583</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2036</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9136</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.4338</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9657</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.4004</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3877</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6367</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0061</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.835</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.4216</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2404</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.382</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.9583</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2036</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9136</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.4338</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9657</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.4004</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3877</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6367</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0061</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.835</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.4216</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2404</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.382</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.9583</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2036</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9136</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.4338</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9657</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.4004</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3877</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6367</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0061</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.835</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.4216</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.2404</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.382</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.9583</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2036</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9136</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.4338</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9657</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7278.5407</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9557</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9856</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9577</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9559</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
